--- a/0-) HS92 Sektor Kodlari ve Isimleri.xlsx
+++ b/0-) HS92 Sektor Kodlari ve Isimleri.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oguzo\Desktop\MENA\CEE-MENA\Dış Ticaret Verilerinin Analizi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fintegral365-my.sharepoint.com/personal/oguz_oztekin_fintegral_com_tr/Documents/Masaüstü/Dis-Ticaret-Tekstil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3001EC8A-A537-4334-AD79-3E914B1511C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3001EC8A-A537-4334-AD79-3E914B1511C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B09BE8F4-72E9-4381-95CA-C77F4289309F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -709,17 +709,17 @@
   <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -741,7 +741,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -752,7 +752,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -763,7 +763,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -774,7 +774,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -785,7 +785,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -807,7 +807,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -818,7 +818,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -829,7 +829,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -840,7 +840,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -851,7 +851,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -862,7 +862,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -873,7 +873,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -884,7 +884,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -895,7 +895,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -906,7 +906,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -917,7 +917,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -928,7 +928,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -939,7 +939,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -950,7 +950,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -961,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -972,7 +972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -983,7 +983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -994,7 +994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>100</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>100</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>100</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>100</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>101</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>101</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>102</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>102</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>103</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>103</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>103</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>103</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>103</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>104</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>104</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>104</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>104</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>104</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>104</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>104</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>104</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>104</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>104</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>104</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>104</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>104</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>105</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>105</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>105</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>105</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>105</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
